--- a/biology/Zoologie/Afroaeschna/Afroaeschna.xlsx
+++ b/biology/Zoologie/Afroaeschna/Afroaeschna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afroaeschna scotias
 Afroaeschna est un genre de libellules de la famille des Aeshnidae (sous-ordre des Anisoptères, ordre des Odonates) qui n'est représenté que par l'espèce Afroaeschna scotias.
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Afroaeschna a été créé par Günther Peters (d) et Günther Theischinger (d) en 2011.
-L'espèce Afroaeschna scotias a été initialement décrite en 1952 par Elliot Pinhey sous le protonyme de Aeshna scotias sur la base de spécimens collectés en Ouganda[2].
+L'espèce Afroaeschna scotias a été initialement décrite en 1952 par Elliot Pinhey sous le protonyme de Aeshna scotias sur la base de spécimens collectés en Ouganda.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécimens décrits par E. Pinhey avaient une envergure de 51 mm pour le mâle et de 54 mm pour la femelle[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens décrits par E. Pinhey avaient une envergure de 51 mm pour le mâle et de 54 mm pour la femelle.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genre Afroaeschna :
 (nl) G. Peters et G. Theischinger, « The genera of the Afrotropical Aeshnini: Afroaeschna gen. nov., Pinheyschna gen. nov., and Zosteraeschna gen. nov., with the description of Pinheyschna waterstoni spec. nov. (Anisoptera: Aeshnidae) », Odonatologica, Societas Internationalis Odonatologica (d), vol. 40, no 3,‎ 1er septembre 2011, p. 227-249 (ISSN 0375-0183 et 0375-0183, lire en ligne)
